--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
   <si>
-    <t>Summary report for 11/10/2019 through 11/23/2019</t>
+    <t>Summary report for 11/17/2019 through 11/30/2019</t>
   </si>
   <si>
     <t>payroll_id</t>
@@ -55,10 +55,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>11/10/2019</t>
-  </si>
-  <si>
-    <t>11/23/2019</t>
+    <t>11/17/2019</t>
+  </si>
+  <si>
+    <t>11/30/2019</t>
   </si>
   <si>
     <t>Adam</t>
@@ -605,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>40.7</v>
+        <v>38.18</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>91</v>
+        <v>64.02</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>17.63</v>
+        <v>33.92</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -674,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>17.95</v>
+        <v>18.02</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -743,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>23.77</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>14.87</v>
+        <v>28.03</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -812,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>76.2</v>
+        <v>52.18</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>17.93</v>
+        <v>2.48</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -950,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>

--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamb\OneDrive\Documents\Scripts\Python\Utilities\time_lord\buildingblocks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{D16D9001-C158-4659-91B1-971FD758F879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-33090" yWindow="3495" windowWidth="28095" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
     <t>Summary report for 11/17/2019 through 11/30/2019</t>
   </si>
@@ -125,12 +131,6 @@
   </si>
   <si>
     <t>Cummins</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Keller</t>
   </si>
   <si>
     <t>Panida</t>
@@ -211,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -318,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +358,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,6 +410,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,22 +603,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -623,12 +667,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>64.02</v>
+        <v>88.02</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -646,12 +690,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>33.92</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -669,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -692,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -715,7 +759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -738,12 +782,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>8.970000000000001</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -761,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -784,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -807,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -830,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -853,12 +897,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -867,7 +911,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -876,21 +920,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -899,7 +943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -922,12 +966,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -945,12 +989,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -968,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -1014,7 +1058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -1025,7 +1069,7 @@
         <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -1037,7 +1081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -1045,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1060,62 +1104,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="3" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamb\OneDrive\Documents\Scripts\Python\Utilities\time_lord\buildingblocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{D16D9001-C158-4659-91B1-971FD758F879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{E27710B8-90CF-4664-8A9E-91BC2A37C235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33090" yWindow="3495" windowWidth="28095" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>88.02</v>
+        <v>80.02</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>

--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamb\OneDrive\Documents\Scripts\Python\Utilities\time_lord\buildingblocks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{E27710B8-90CF-4664-8A9E-91BC2A37C235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33090" yWindow="3495" windowWidth="28095" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
-    <t>Summary report for 11/17/2019 through 11/30/2019</t>
+    <t>Summary report for 12/1/2019 through 12/14/2019</t>
   </si>
   <si>
     <t>payroll_id</t>
@@ -61,10 +55,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>11/17/2019</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
+    <t>12/1/2019</t>
+  </si>
+  <si>
+    <t>12/14/2019</t>
   </si>
   <si>
     <t>Adam</t>
@@ -211,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,14 +266,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -326,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,27 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,24 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,22 +553,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,12 +594,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>38.18</v>
+        <v>28.75</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -667,12 +617,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>80.02</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -690,12 +640,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>33.799999999999997</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -713,12 +663,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>18.02</v>
+        <v>90.88</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -736,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -759,12 +709,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>193.17</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -782,12 +732,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>8.9700000000000006</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -805,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -828,12 +778,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>28.03</v>
+        <v>70.98</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -851,12 +801,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>52.18</v>
+        <v>121.77</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -874,12 +824,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>262.87</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -897,12 +847,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>2.48</v>
+        <v>147.6</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -920,7 +870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -943,12 +893,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>108.53</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -966,12 +916,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>0.33</v>
+        <v>108.32</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -989,12 +939,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>177.88</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1012,12 +962,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>218.3</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -1035,12 +985,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>273.52</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -1058,12 +1008,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>174.52</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -1081,7 +1031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -1104,37 +1054,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>

--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>107</v>
+        <v>40.98</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -668,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>90.88</v>
+        <v>24.87</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>193.17</v>
+        <v>109.27</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>70.98</v>
+        <v>71.08</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -806,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>121.77</v>
+        <v>101.93</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -829,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>262.87</v>
+        <v>250.32</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>147.6</v>
+        <v>84.58</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -898,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>108.53</v>
+        <v>102.73</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -944,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>177.88</v>
+        <v>115.17</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -967,7 +967,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>218.3</v>
+        <v>74.3</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -990,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>273.52</v>
+        <v>104.67</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -1013,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>174.52</v>
+        <v>96.47</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>

--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamb\OneDrive\Documents\Scripts\Python\Utilities\time_lord\buildingblocks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{68E56E36-E08B-48C6-B6F4-D6B7FB65219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-33090" yWindow="3495" windowWidth="28095" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
-    <t>Summary report for 12/1/2019 through 12/14/2019</t>
+    <t>Summary report for 12/22/2019 through 1/4/2020</t>
   </si>
   <si>
     <t>payroll_id</t>
@@ -55,10 +61,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>12/1/2019</t>
-  </si>
-  <si>
-    <t>12/14/2019</t>
+    <t>12/22/2019</t>
+  </si>
+  <si>
+    <t>1/4/2020</t>
   </si>
   <si>
     <t>Adam</t>
@@ -205,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -312,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +358,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +410,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,22 +603,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -594,12 +644,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -617,12 +667,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>77.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -640,12 +690,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>40.98</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -663,12 +713,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>24.87</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -686,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -709,12 +759,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>109.27</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -732,12 +782,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>64.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -755,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -778,12 +828,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>71.08</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -801,12 +851,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>101.93</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -824,12 +874,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>250.32</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -847,12 +897,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>84.58</v>
+        <v>0.23</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -870,7 +920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -893,12 +943,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>102.73</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -916,12 +966,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>108.32</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -939,12 +989,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>115.17</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -962,12 +1012,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>74.3</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -985,12 +1035,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>104.67</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -1008,12 +1058,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>96.47</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
@@ -1031,7 +1081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -1054,37 +1104,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>

--- a/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
+++ b/Python/Utilities/time_lord/buildingblocks/Test_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamb\OneDrive\Documents\Scripts\Python\Utilities\time_lord\buildingblocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{68E56E36-E08B-48C6-B6F4-D6B7FB65219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{48B728A8-E240-47EA-A1E1-F491CFBD0FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33090" yWindow="3495" windowWidth="28095" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="62">
   <si>
-    <t>Summary report for 12/22/2019 through 1/4/2020</t>
+    <t>Summary report for 12/29/2019 through 1/11/2020</t>
   </si>
   <si>
     <t>payroll_id</t>
@@ -61,10 +61,10 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>12/22/2019</t>
-  </si>
-  <si>
-    <t>1/4/2020</t>
+    <t>12/29/2019</t>
+  </si>
+  <si>
+    <t>1/11/2020</t>
   </si>
   <si>
     <t>Adam</t>
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>45.02</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -695,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>18.43</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>24.48</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -787,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>28.27</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>43.45</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -879,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -902,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>0.23</v>
+        <v>47.2</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
@@ -948,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>18.93</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -971,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>28.02</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -994,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>40.42</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1017,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>0.56999999999999995</v>
+        <v>40.17</v>
       </c>
       <c r="D21" t="s">
         <v>48</v>
@@ -1040,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>42.73</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -1063,7 +1063,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>41.63</v>
       </c>
       <c r="D23" t="s">
         <v>52</v>
